--- a/Racecard_20250216_5.xlsx
+++ b/Racecard_20250216_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="357">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
   </si>
   <si>
     <t>上次名次</t>
@@ -795,6 +801,39 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>2025/01/05</t>
+  </si>
+  <si>
+    <t>2024/12/22</t>
+  </si>
+  <si>
+    <t>2025/01/26</t>
+  </si>
+  <si>
+    <t>2025/01/12</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t>2025/01/19</t>
+  </si>
+  <si>
+    <t>2025/02/09</t>
+  </si>
+  <si>
+    <t>2024/10/20</t>
+  </si>
+  <si>
+    <t>2024/03/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班（條件限制） </t>
   </si>
   <si>
     <t>楊明綸</t>
@@ -1435,13 +1474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,25 +1754,31 @@
       <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:93">
       <c r="A2" s="2">
         <v>45704</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1400</v>
@@ -1742,84 +1787,84 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L2">
         <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O2">
         <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2">
         <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AA2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>109</v>
+        <v>250</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:93">
       <c r="A3" s="2">
         <v>45704</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1400</v>
@@ -1828,237 +1873,243 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L3">
         <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R3">
         <v>54</v>
       </c>
       <c r="S3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AA3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AE3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH3">
         <v>2024326</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK3">
         <v>4</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK3">
+      <c r="AL3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM3">
         <v>9.5</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>126</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>3</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>12</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>-11</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>13.43</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>34.94</v>
       </c>
-      <c r="AR3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW3">
+      <c r="AT3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY3">
         <v>13.43</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>21.51</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>23.28</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>23.66</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>46.94</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>-0.153</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>46.787</v>
       </c>
-      <c r="BF3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG3">
+      <c r="BH3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI3">
         <v>2024229</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>3</v>
       </c>
-      <c r="BI3" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BL3">
         <v>4.6</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>129</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>0</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>2</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>-1</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>13.69</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>35.64</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>294</v>
-      </c>
-      <c r="BR3" t="s">
+      <c r="BS3" t="s">
+        <v>307</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>311</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>316</v>
+      </c>
+      <c r="BX3">
+        <v>13.69</v>
+      </c>
+      <c r="BY3">
+        <v>21.95</v>
+      </c>
+      <c r="BZ3">
+        <v>23.9</v>
+      </c>
+      <c r="CA3">
+        <v>22.88</v>
+      </c>
+      <c r="CD3">
+        <v>46.78</v>
+      </c>
+      <c r="CE3">
+        <v>-0.018</v>
+      </c>
+      <c r="CF3">
+        <v>46.762</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>324</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI3" t="s">
         <v>298</v>
       </c>
-      <c r="BU3" t="s">
-        <v>303</v>
-      </c>
-      <c r="BV3">
-        <v>13.69</v>
-      </c>
-      <c r="BW3">
-        <v>21.95</v>
-      </c>
-      <c r="BX3">
-        <v>23.9</v>
-      </c>
-      <c r="BY3">
-        <v>22.88</v>
-      </c>
-      <c r="CB3">
-        <v>46.78</v>
-      </c>
-      <c r="CC3">
-        <v>-0.018</v>
-      </c>
-      <c r="CD3">
-        <v>46.762</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>311</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>311</v>
-      </c>
       <c r="CJ3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="CK3" t="s">
-        <v>336</v>
-      </c>
-      <c r="CL3">
+        <v>324</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>340</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>349</v>
+      </c>
+      <c r="CN3">
         <v>81.73</v>
       </c>
-      <c r="CM3">
+      <c r="CO3">
         <v>82.06</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="A4" s="2">
         <v>45704</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1400</v>
@@ -2067,84 +2118,84 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4">
         <v>127</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O4">
         <v>13</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R4">
         <v>52</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
       <c r="Y4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AE4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG4" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>111</v>
+        <v>250</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="A5" s="2">
         <v>45704</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1400</v>
@@ -2153,87 +2204,87 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5">
         <v>127</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R5">
         <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AC5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AE5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>112</v>
+        <v>250</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:93">
       <c r="A6" s="2">
         <v>45704</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1400</v>
@@ -2242,168 +2293,174 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6">
         <v>127</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R6">
         <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W6">
         <v>3</v>
       </c>
       <c r="Y6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AC6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AE6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH6">
         <v>2024278</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK6">
         <v>11</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK6">
+      <c r="AL6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM6">
         <v>6.7</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>129</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>-2</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>1</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>3</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>13.59</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>35.43</v>
       </c>
-      <c r="AR6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW6">
+      <c r="AT6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY6">
         <v>13.87</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>22.24</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>23.84</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>23.1</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>46.94</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>0.02399999999999999</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>46.964</v>
       </c>
-      <c r="BF6" t="s">
-        <v>278</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>278</v>
+      <c r="BH6" t="s">
+        <v>291</v>
       </c>
       <c r="CH6" t="s">
-        <v>318</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>278</v>
-      </c>
-      <c r="CL6">
+        <v>115</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CN6">
         <v>83.06999999999999</v>
       </c>
-      <c r="CM6">
+      <c r="CO6">
         <v>83.06999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:93">
       <c r="A7" s="2">
         <v>45704</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1400</v>
@@ -2412,237 +2469,243 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7">
         <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O7">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R7">
         <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AA7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AB7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH7">
         <v>2024381</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK7">
         <v>2</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK7">
+      <c r="AL7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM7">
         <v>12</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>128</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>-2</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>3</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>9</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>13.57</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>35.7</v>
       </c>
-      <c r="AR7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW7">
+      <c r="AT7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY7">
         <v>13.81</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>22.37</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>23.2</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>23.16</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>46.36</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>0.132</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>46.492</v>
       </c>
-      <c r="BF7" t="s">
-        <v>286</v>
-      </c>
-      <c r="BG7">
+      <c r="BH7" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI7">
         <v>2024326</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>6</v>
       </c>
-      <c r="BI7" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ7">
+      <c r="BK7" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL7">
         <v>5.6</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>123</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>3</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>5</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>7</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>13.43</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>34.94</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>257</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>266</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>304</v>
-      </c>
-      <c r="BV7">
+      <c r="BS7" t="s">
+        <v>270</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BX7">
         <v>13.83</v>
       </c>
-      <c r="BW7">
+      <c r="BY7">
         <v>22.03</v>
       </c>
-      <c r="BX7">
+      <c r="BZ7">
         <v>22.96</v>
       </c>
-      <c r="BY7">
+      <c r="CA7">
         <v>23.5</v>
       </c>
-      <c r="CB7">
+      <c r="CD7">
         <v>46.46</v>
       </c>
-      <c r="CC7">
+      <c r="CE7">
         <v>0.171</v>
       </c>
-      <c r="CD7">
+      <c r="CF7">
         <v>46.631</v>
       </c>
-      <c r="CE7" t="s">
-        <v>312</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>114</v>
-      </c>
       <c r="CG7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="CH7" t="s">
-        <v>319</v>
+        <v>116</v>
       </c>
       <c r="CI7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="CJ7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="CK7" t="s">
-        <v>337</v>
-      </c>
-      <c r="CL7">
+        <v>325</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>341</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>350</v>
+      </c>
+      <c r="CN7">
         <v>82.67</v>
       </c>
-      <c r="CM7">
+      <c r="CO7">
         <v>82.58</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:93">
       <c r="A8" s="2">
         <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1400</v>
@@ -2651,237 +2714,243 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>125</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O8">
         <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R8">
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="Y8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AD8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH8">
         <v>2024341</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK8">
         <v>11</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK8">
+      <c r="AL8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM8">
         <v>103</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>126</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>-1</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>11</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>0</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>13.31</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>35.27</v>
       </c>
-      <c r="AR8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW8">
+      <c r="AT8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY8">
         <v>14.23</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>22.24</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>23.38</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>23.22</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>46.6</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>-0.015</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>46.585</v>
       </c>
-      <c r="BF8" t="s">
-        <v>276</v>
-      </c>
-      <c r="BG8">
+      <c r="BH8" t="s">
+        <v>289</v>
+      </c>
+      <c r="BI8">
         <v>2024311</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>12</v>
       </c>
-      <c r="BI8" t="s">
-        <v>254</v>
-      </c>
-      <c r="BJ8">
+      <c r="BK8" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL8">
         <v>109</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>125</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>0</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>8</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>3</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>13.59</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>35.96</v>
       </c>
-      <c r="BQ8" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>305</v>
-      </c>
-      <c r="BV8">
+      <c r="BS8" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>312</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>318</v>
+      </c>
+      <c r="BX8">
         <v>14.23</v>
       </c>
-      <c r="BW8">
+      <c r="BY8">
         <v>23.33</v>
       </c>
-      <c r="BX8">
+      <c r="BZ8">
         <v>22.72</v>
       </c>
-      <c r="BY8">
+      <c r="CA8">
         <v>23.39</v>
       </c>
-      <c r="CB8">
+      <c r="CD8">
         <v>46.11</v>
       </c>
-      <c r="CC8">
+      <c r="CE8">
         <v>0.05399999999999999</v>
       </c>
-      <c r="CD8">
+      <c r="CF8">
         <v>46.164</v>
       </c>
-      <c r="CE8" t="s">
-        <v>313</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>115</v>
-      </c>
       <c r="CG8" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="CH8" t="s">
-        <v>320</v>
+        <v>117</v>
       </c>
       <c r="CI8" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="CJ8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="CK8" t="s">
-        <v>338</v>
-      </c>
-      <c r="CL8">
+        <v>326</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>342</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>351</v>
+      </c>
+      <c r="CN8">
         <v>83.05</v>
       </c>
-      <c r="CM8">
+      <c r="CO8">
         <v>83.38</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:93">
       <c r="A9" s="2">
         <v>45704</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>1400</v>
@@ -2890,234 +2959,240 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>121</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O9">
         <v>14</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R9">
         <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W9">
         <v>9</v>
       </c>
       <c r="Y9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AA9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AH9">
         <v>2024391</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK9">
         <v>12</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK9">
+      <c r="AL9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM9">
         <v>53</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>123</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>-2</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>11</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>3</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>13.58</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>35.14</v>
       </c>
-      <c r="AR9" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW9">
+      <c r="AT9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY9">
         <v>14.22</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>21.6</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>23.4</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>24.18</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>47.58</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>0.02399999999999999</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>47.604</v>
       </c>
-      <c r="BF9" t="s">
-        <v>287</v>
-      </c>
-      <c r="BG9">
+      <c r="BH9" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI9">
         <v>2024185</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>9</v>
       </c>
-      <c r="BI9" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ9">
+      <c r="BK9" t="s">
+        <v>268</v>
+      </c>
+      <c r="BL9">
         <v>54</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>123</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>-2</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>10</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>4</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>13.61</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>35.42</v>
       </c>
-      <c r="BQ9" t="s">
-        <v>264</v>
-      </c>
-      <c r="BR9" t="s">
+      <c r="BS9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>313</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX9">
+        <v>14.41</v>
+      </c>
+      <c r="BY9">
+        <v>22.33</v>
+      </c>
+      <c r="BZ9">
+        <v>23.1</v>
+      </c>
+      <c r="CA9">
+        <v>22.68</v>
+      </c>
+      <c r="CD9">
+        <v>45.78</v>
+      </c>
+      <c r="CE9">
+        <v>0.042</v>
+      </c>
+      <c r="CF9">
+        <v>45.822</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>320</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI9" t="s">
         <v>300</v>
       </c>
-      <c r="BU9" t="s">
-        <v>306</v>
-      </c>
-      <c r="BV9">
-        <v>14.41</v>
-      </c>
-      <c r="BW9">
-        <v>22.33</v>
-      </c>
-      <c r="BX9">
-        <v>23.1</v>
-      </c>
-      <c r="BY9">
-        <v>22.68</v>
-      </c>
-      <c r="CB9">
-        <v>45.78</v>
-      </c>
-      <c r="CC9">
-        <v>0.042</v>
-      </c>
-      <c r="CD9">
-        <v>45.822</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>307</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>116</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>287</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>321</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>307</v>
-      </c>
       <c r="CJ9" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="CK9" t="s">
-        <v>339</v>
-      </c>
-      <c r="CL9">
+        <v>320</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>343</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>352</v>
+      </c>
+      <c r="CN9">
         <v>83.42</v>
       </c>
-      <c r="CM9">
+      <c r="CO9">
         <v>82.98999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="A10" s="2">
         <v>45704</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1400</v>
@@ -3126,237 +3201,243 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10">
         <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R10">
         <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W10">
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AH10">
         <v>2024360</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK10">
         <v>4</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK10">
+      <c r="AL10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM10">
         <v>11</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>125</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>-4</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>1</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>9</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>13.51</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>34.91</v>
       </c>
-      <c r="AR10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AV10" t="s">
+      <c r="AT10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY10">
+        <v>14.07</v>
+      </c>
+      <c r="AZ10">
+        <v>21.56</v>
+      </c>
+      <c r="BA10">
+        <v>22.89</v>
+      </c>
+      <c r="BB10">
+        <v>23.6</v>
+      </c>
+      <c r="BE10">
+        <v>46.49</v>
+      </c>
+      <c r="BF10">
+        <v>0.102</v>
+      </c>
+      <c r="BG10">
+        <v>46.592</v>
+      </c>
+      <c r="BH10" t="s">
         <v>280</v>
       </c>
-      <c r="AW10">
-        <v>14.07</v>
-      </c>
-      <c r="AX10">
-        <v>21.56</v>
-      </c>
-      <c r="AY10">
-        <v>22.89</v>
-      </c>
-      <c r="AZ10">
-        <v>23.6</v>
-      </c>
-      <c r="BC10">
-        <v>46.49</v>
-      </c>
-      <c r="BD10">
-        <v>0.102</v>
-      </c>
-      <c r="BE10">
-        <v>46.592</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG10">
+      <c r="BI10">
         <v>2024113</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>4</v>
       </c>
-      <c r="BI10" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ10">
+      <c r="BK10" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL10">
         <v>6.2</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>127</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>-6</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>9</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>1</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>13.68</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>35.62</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>264</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>307</v>
-      </c>
-      <c r="BV10">
+      <c r="BS10" t="s">
+        <v>277</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>286</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX10">
         <v>13.84</v>
       </c>
-      <c r="BW10">
+      <c r="BY10">
         <v>22.02</v>
       </c>
-      <c r="BX10">
+      <c r="BZ10">
         <v>23.26</v>
       </c>
-      <c r="BY10">
+      <c r="CA10">
         <v>23.44</v>
       </c>
-      <c r="CB10">
+      <c r="CD10">
         <v>46.7</v>
       </c>
-      <c r="CC10">
+      <c r="CE10">
         <v>-0.07199999999999999</v>
       </c>
-      <c r="CD10">
+      <c r="CF10">
         <v>46.628</v>
       </c>
-      <c r="CE10" t="s">
+      <c r="CG10" t="s">
+        <v>325</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>280</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>335</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>325</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>344</v>
+      </c>
+      <c r="CM10" t="s">
         <v>312</v>
       </c>
-      <c r="CF10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>267</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>322</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>312</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>331</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>299</v>
-      </c>
-      <c r="CL10">
+      <c r="CN10">
         <v>82.22</v>
       </c>
-      <c r="CM10">
+      <c r="CO10">
         <v>82.34999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:93">
       <c r="A11" s="2">
         <v>45704</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>1400</v>
@@ -3365,87 +3446,87 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11">
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R11">
         <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AC11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AE11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG11" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>118</v>
+        <v>250</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:93">
       <c r="A12" s="2">
         <v>45704</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>1400</v>
@@ -3454,237 +3535,243 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L12">
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12">
         <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AB12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AE12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH12">
         <v>2024410</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK12">
         <v>10</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK12">
+      <c r="AL12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM12">
         <v>11</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>122</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>-2</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>6</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>0</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>13.33</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>35.28</v>
       </c>
-      <c r="AR12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AW12">
+      <c r="AT12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AY12">
         <v>13.77</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>22.19</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>23.03</v>
       </c>
-      <c r="AZ12">
+      <c r="BB12">
         <v>23.61</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>46.64</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>-0.03</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>46.61</v>
       </c>
-      <c r="BF12" t="s">
-        <v>288</v>
-      </c>
-      <c r="BG12">
+      <c r="BH12" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI12">
         <v>2024360</v>
       </c>
-      <c r="BH12">
+      <c r="BJ12">
         <v>9</v>
       </c>
-      <c r="BI12" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ12">
+      <c r="BK12" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL12">
         <v>27</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>123</v>
       </c>
-      <c r="BL12">
+      <c r="BN12">
         <v>-3</v>
       </c>
-      <c r="BM12">
+      <c r="BO12">
         <v>13</v>
       </c>
-      <c r="BN12">
+      <c r="BP12">
         <v>-7</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>13.51</v>
       </c>
-      <c r="BP12">
+      <c r="BR12">
         <v>34.91</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>262</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>303</v>
-      </c>
-      <c r="BV12">
+      <c r="BS12" t="s">
+        <v>275</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>316</v>
+      </c>
+      <c r="BX12">
         <v>13.99</v>
       </c>
-      <c r="BW12">
+      <c r="BY12">
         <v>22.04</v>
       </c>
-      <c r="BX12">
+      <c r="BZ12">
         <v>23.05</v>
       </c>
-      <c r="BY12">
+      <c r="CA12">
         <v>23.34</v>
       </c>
-      <c r="CB12">
+      <c r="CD12">
         <v>46.39</v>
       </c>
-      <c r="CC12">
+      <c r="CE12">
         <v>-0.171</v>
       </c>
-      <c r="CD12">
+      <c r="CF12">
         <v>46.219</v>
       </c>
-      <c r="CE12" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>119</v>
-      </c>
       <c r="CG12" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="CH12" t="s">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="CI12" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="CJ12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CK12" t="s">
-        <v>340</v>
-      </c>
-      <c r="CL12">
+        <v>327</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>345</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>353</v>
+      </c>
+      <c r="CN12">
         <v>82.56999999999999</v>
       </c>
-      <c r="CM12">
+      <c r="CO12">
         <v>82.41</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:93">
       <c r="A13" s="2">
         <v>45704</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1400</v>
@@ -3693,237 +3780,243 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O13">
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W13">
         <v>3</v>
       </c>
       <c r="Y13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AD13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AE13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH13">
         <v>2024381</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK13">
         <v>11</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK13">
+      <c r="AL13" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM13">
         <v>175</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>125</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>-5</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>7</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>-4</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>13.57</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>35.7</v>
       </c>
-      <c r="AR13" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AW13">
+      <c r="AT13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY13">
         <v>14.37</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>22.61</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>23.04</v>
       </c>
-      <c r="AZ13">
+      <c r="BB13">
         <v>23.43</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>46.47</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>-0.147</v>
       </c>
-      <c r="BE13">
+      <c r="BG13">
         <v>46.323</v>
       </c>
-      <c r="BF13" t="s">
-        <v>289</v>
-      </c>
-      <c r="BG13">
+      <c r="BH13" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI13">
         <v>2024278</v>
       </c>
-      <c r="BH13">
+      <c r="BJ13">
         <v>12</v>
       </c>
-      <c r="BI13" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ13">
+      <c r="BK13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BL13">
         <v>84</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>127</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>-7</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>2</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>1</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>13.59</v>
       </c>
-      <c r="BP13">
+      <c r="BR13">
         <v>35.43</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>258</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>308</v>
-      </c>
-      <c r="BV13">
+      <c r="BS13" t="s">
+        <v>271</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>280</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX13">
         <v>14.35</v>
       </c>
-      <c r="BW13">
+      <c r="BY13">
         <v>22.2</v>
       </c>
-      <c r="BX13">
+      <c r="BZ13">
         <v>23.68</v>
       </c>
-      <c r="BY13">
+      <c r="CA13">
         <v>22.83</v>
       </c>
-      <c r="CB13">
+      <c r="CD13">
         <v>46.51</v>
       </c>
-      <c r="CC13">
+      <c r="CE13">
         <v>-0.08699999999999999</v>
       </c>
-      <c r="CD13">
+      <c r="CF13">
         <v>46.42299999999999</v>
       </c>
-      <c r="CE13" t="s">
-        <v>315</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>120</v>
-      </c>
       <c r="CG13" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="CH13" t="s">
-        <v>324</v>
+        <v>122</v>
       </c>
       <c r="CI13" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="CJ13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="CK13" t="s">
-        <v>341</v>
-      </c>
-      <c r="CL13">
+        <v>328</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>346</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>354</v>
+      </c>
+      <c r="CN13">
         <v>83.3</v>
       </c>
-      <c r="CM13">
+      <c r="CO13">
         <v>83.13</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:93">
       <c r="A14" s="2">
         <v>45704</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>1400</v>
@@ -3932,237 +4025,243 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14">
         <v>119</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R14">
         <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W14">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AB14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AC14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AE14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH14">
         <v>2024113</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK14">
         <v>12</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK14">
+      <c r="AL14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM14">
         <v>42</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>124</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>-5</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>6</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>-1</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>13.68</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>35.62</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AT14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY14">
+        <v>13.92</v>
+      </c>
+      <c r="AZ14">
+        <v>22.34</v>
+      </c>
+      <c r="BA14">
+        <v>23.74</v>
+      </c>
+      <c r="BB14">
+        <v>31.39</v>
+      </c>
+      <c r="BE14">
+        <v>55.13</v>
+      </c>
+      <c r="BF14">
+        <v>-0.093</v>
+      </c>
+      <c r="BG14">
+        <v>55.037</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI14">
+        <v>2024059</v>
+      </c>
+      <c r="BJ14">
+        <v>4</v>
+      </c>
+      <c r="BK14" t="s">
         <v>264</v>
       </c>
-      <c r="AS14" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW14">
-        <v>13.92</v>
-      </c>
-      <c r="AX14">
-        <v>22.34</v>
-      </c>
-      <c r="AY14">
-        <v>23.74</v>
-      </c>
-      <c r="AZ14">
-        <v>31.39</v>
-      </c>
-      <c r="BC14">
-        <v>55.13</v>
-      </c>
-      <c r="BD14">
-        <v>-0.093</v>
-      </c>
-      <c r="BE14">
-        <v>55.037</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>290</v>
-      </c>
-      <c r="BG14">
-        <v>2024059</v>
-      </c>
-      <c r="BH14">
-        <v>4</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>82</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>123</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>-4</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
         <v>3</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>2</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>13.56</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>35.43</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>296</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU14" t="s">
+      <c r="BS14" t="s">
         <v>309</v>
       </c>
-      <c r="BV14">
+      <c r="BT14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX14">
         <v>13.64</v>
       </c>
-      <c r="BW14">
+      <c r="BY14">
         <v>22.11</v>
       </c>
-      <c r="BX14">
+      <c r="BZ14">
         <v>23.34</v>
       </c>
-      <c r="BY14">
+      <c r="CA14">
         <v>23.09</v>
       </c>
-      <c r="CB14">
+      <c r="CD14">
         <v>46.43</v>
       </c>
-      <c r="CC14">
+      <c r="CE14">
         <v>-0.024</v>
       </c>
-      <c r="CD14">
+      <c r="CF14">
         <v>46.406</v>
       </c>
-      <c r="CE14" t="s">
-        <v>298</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>121</v>
-      </c>
       <c r="CG14" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="CH14" t="s">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="CI14" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="CJ14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="CK14" t="s">
-        <v>342</v>
-      </c>
-      <c r="CL14">
+        <v>311</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>355</v>
+      </c>
+      <c r="CN14">
         <v>91.3</v>
       </c>
-      <c r="CM14">
+      <c r="CO14">
         <v>86.73</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:93">
       <c r="A15" s="2">
         <v>45704</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1400</v>
@@ -4171,216 +4270,222 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L15">
         <v>116</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R15">
         <v>41</v>
       </c>
       <c r="S15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W15">
         <v>5</v>
       </c>
       <c r="Y15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AA15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AB15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AC15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AH15">
         <v>2023523</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK15">
         <v>14</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK15">
+      <c r="AL15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM15">
         <v>202</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>122</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>-6</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>3</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>5</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>13.11</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>35.22</v>
       </c>
-      <c r="AR15" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AW15">
+      <c r="AT15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY15">
         <v>13.83</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>21.91</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>23.74</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>23.53</v>
-      </c>
-      <c r="BC15">
-        <v>47.27</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
       </c>
       <c r="BE15">
         <v>47.27</v>
       </c>
-      <c r="BF15" t="s">
-        <v>284</v>
+      <c r="BF15">
+        <v>0</v>
       </c>
       <c r="BG15">
+        <v>47.27</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI15">
         <v>2023487</v>
       </c>
-      <c r="BH15">
+      <c r="BJ15">
         <v>10</v>
       </c>
-      <c r="BI15" t="s">
-        <v>293</v>
-      </c>
-      <c r="BJ15">
+      <c r="BK15" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL15">
         <v>202</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>125</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>-9</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>14</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>-6</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>13.38</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>34.87</v>
       </c>
-      <c r="BQ15" t="s">
+      <c r="BS15" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>315</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>323</v>
+      </c>
+      <c r="BX15">
+        <v>13.78</v>
+      </c>
+      <c r="BY15">
+        <v>21.61</v>
+      </c>
+      <c r="BZ15">
+        <v>23.59</v>
+      </c>
+      <c r="CA15">
+        <v>24.87</v>
+      </c>
+      <c r="CD15">
+        <v>48.46</v>
+      </c>
+      <c r="CE15">
+        <v>-0.243</v>
+      </c>
+      <c r="CF15">
+        <v>48.217</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI15" t="s">
         <v>297</v>
       </c>
-      <c r="BR15" t="s">
-        <v>302</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>310</v>
-      </c>
-      <c r="BV15">
-        <v>13.78</v>
-      </c>
-      <c r="BW15">
-        <v>21.61</v>
-      </c>
-      <c r="BX15">
-        <v>23.59</v>
-      </c>
-      <c r="BY15">
-        <v>24.87</v>
-      </c>
-      <c r="CB15">
-        <v>48.46</v>
-      </c>
-      <c r="CC15">
-        <v>-0.243</v>
-      </c>
-      <c r="CD15">
-        <v>48.217</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>316</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>122</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>284</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>326</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>316</v>
-      </c>
       <c r="CJ15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CK15" t="s">
-        <v>343</v>
-      </c>
-      <c r="CL15">
+        <v>329</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>348</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>356</v>
+      </c>
+      <c r="CN15">
         <v>83.01000000000001</v>
       </c>
-      <c r="CM15">
+      <c r="CO15">
         <v>83.31</v>
       </c>
     </row>
